--- a/ФСУ/9209.xlsx
+++ b/ФСУ/9209.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Даниил\Desktop\bot\ФСУ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D5A016-4927-4E7C-AE85-02BACD4EA1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D869892-AB05-4C75-8C4E-00705634DDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{83A832C8-DA2A-4D38-AAD2-378DA91B5B56}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="45">
   <si>
     <t>Предмет</t>
   </si>
@@ -295,26 +295,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CAA301-1C84-4448-B81F-EA108D6BDFE5}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,8 +677,8 @@
       <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
+      <c r="C2" s="2">
+        <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>2</v>
@@ -692,16 +692,16 @@
       <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
+      <c r="H2" s="2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -728,13 +728,13 @@
       <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -761,13 +761,13 @@
       <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -794,12 +794,12 @@
       <c r="H5" s="2">
         <v>5</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
       <c r="P5" s="4"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -827,12 +827,12 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -859,12 +859,12 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -891,12 +891,12 @@
       <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -923,12 +923,12 @@
       <c r="H9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -955,12 +955,12 @@
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -987,11 +987,11 @@
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="8"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -1018,13 +1018,13 @@
       <c r="H12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -1051,13 +1051,13 @@
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -1084,13 +1084,13 @@
       <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -1458,13 +1458,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J2:P4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="J12:P14"/>
@@ -1477,6 +1470,13 @@
     <mergeCell ref="N9:O9"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="N10:O10"/>
+    <mergeCell ref="J2:P4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
